--- a/results/lasso_test_results/lasso_coefs_odds_ratios.xlsx
+++ b/results/lasso_test_results/lasso_coefs_odds_ratios.xlsx
@@ -430,7 +430,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>genderW</t>
+          <t>sexW</t>
         </is>
       </c>
       <c r="B3">
